--- a/document/공연리스트_03.xlsx
+++ b/document/공연리스트_03.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS50520\Documents\workspace\Tiget\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mypc\Documents\programming\tiget_project\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036779E9-73E0-4ADB-BCA5-BC19B9D88468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C34277-1B55-415F-BD0C-ECFA2B0E25A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36315" yWindow="1290" windowWidth="25170" windowHeight="12330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="공연정보" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="130">
   <si>
     <t>공연코드</t>
   </si>
@@ -192,6 +192,309 @@
   <si>
     <t>http://www.playdb.co.kr/artistdb/detail.asp?ManNo=6902&amp;part=013001</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김동률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>솔로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발라드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>린아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뮤지컬배우, 솔로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SG워너비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인순이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트로트, 소울</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김연우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조성모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JYJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댄스, 발라드, RnB, POP, 일렉트로니카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동방신기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발라드, RnB , 컨트리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발라드, 락, RnB , JAZZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댄스, 발라드, RnB , 일렉트로니카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이선희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POP, 락, 발라드 , RnB , 트로트, JAZZ, 모던, 뮤지컬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0022</t>
+  </si>
+  <si>
+    <t>S0023</t>
+  </si>
+  <si>
+    <t>S0024</t>
+  </si>
+  <si>
+    <t>S0025</t>
+  </si>
+  <si>
+    <t>S0026</t>
+  </si>
+  <si>
+    <t>S0027</t>
+  </si>
+  <si>
+    <t>S0028</t>
+  </si>
+  <si>
+    <t>S0029</t>
+  </si>
+  <si>
+    <t>리쌍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>듀오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랩/힙합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0030</t>
+  </si>
+  <si>
+    <t>정동원 콘서트 - 일산 (2nd JEONG DONG WON’S CHRISTMAS CONCERT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정동원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일산 킨텍스 제 1전시장 1홀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP석 : 143000원 , R석 : 132000원 , S석 :121000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자우림 콘서트 (MERRY SPOOKY X-MAS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자우림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올림픽공원 SK올림픽핸드볼경기장 (구 펜싱경기장)</t>
+  </si>
+  <si>
+    <t>VIP석 : 143000원 , R석 : 132000원 , S석 :110000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">송가인 콘서트 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송가인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경희대학교 평화의전당</t>
+  </si>
+  <si>
+    <t>VIP석 : 154000원 , R석 : 132000원 , S석 :121000원 , A석: 99000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진주 국제페스티벌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나윤선, 최백호, 알리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경남문화예술회관 대공연장</t>
+  </si>
+  <si>
+    <t>R석 : 50000원, S석 : 40000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주신화월드 카운트다운 2023 제주 (JSW COUNTDOWN 2023)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤미래, 다이나믹 듀오, 타이거 JK, 홍록기, 바다, 비지, 노라조, 코요태, 이재훈, 반달락, 비비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주신화월드 야외주차장</t>
+  </si>
+  <si>
+    <t>1DAY PASS : 60000원, 2DAY PASS : 80000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이트 업 페스티벌 (2022 LIGHT UP FESTIVA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이센스, JUSTHIS, 애쉬 아일랜드, 더콰이엇, 팔로알토, 빅나티, 릴러말즈, 스키니 브라운, 래원, 재하, 99'네스티키즈, 태비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KBS아레나 (구88체육관)</t>
+  </si>
+  <si>
+    <t>스탠딩 : 88000원, VIP석 : 88000원 , R석: 66000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정동하, 소향 콘서트 - 평택 (THE GREATEST)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정동하, 소향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이충문화체육센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R석 : 121000원 , S석 :99000원 , A석: 77000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딕펑스, 데이브레이크 콘서트 (Winter Wonderland)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딕펑스, 데이브레이크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연세대학교 백양콘서트홀(구. 백주년기념관)</t>
+  </si>
+  <si>
+    <t>VIP석 : 143000원 , R석 : 132000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022 뮤직 페스티벌 (RIDE THE BEAT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지코, JUSTHIS, 송민호, 식케이, 애쉬 아일랜드, 언에듀케이티드 키드, PH-1, 다운, 릴러말즈, 호미들, 빅나티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장충체육관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탠딩 : 121000원, 지정석 : 121000원, VIP 2인 패키지 : 330000원, VIP3인, 패키지 : 480000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0022</t>
+  </si>
+  <si>
+    <t>C0023</t>
+  </si>
+  <si>
+    <t>C0024</t>
+  </si>
+  <si>
+    <t>C0025</t>
+  </si>
+  <si>
+    <t>C0026</t>
+  </si>
+  <si>
+    <t>C0027</t>
+  </si>
+  <si>
+    <t>C0028</t>
+  </si>
+  <si>
+    <t>C0029</t>
+  </si>
+  <si>
+    <t>이무진 콘서트 - 대구 (별책부록)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이무진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천마아트센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R석 : 132000원 , S석 :110000원</t>
+  </si>
+  <si>
+    <t>C0030</t>
   </si>
 </sst>
 </file>
@@ -243,9 +546,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -530,7 +835,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -599,28 +904,248 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="2">
+        <v>44919</v>
+      </c>
+      <c r="F3" s="2">
+        <v>44920</v>
+      </c>
+      <c r="G3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" t="s">
+        <v>83</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="2">
+        <v>44904</v>
+      </c>
+      <c r="F4" s="2">
+        <v>44906</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" t="s">
+        <v>87</v>
+      </c>
+    </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="2">
+        <v>44912</v>
+      </c>
+      <c r="F5" s="2">
+        <v>44913</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" t="s">
+        <v>91</v>
+      </c>
       <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="2">
+        <v>44903</v>
+      </c>
+      <c r="F6" s="2">
+        <v>44904</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" t="s">
+        <v>95</v>
+      </c>
+    </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44925</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" t="s">
+        <v>99</v>
+      </c>
       <c r="J7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="2">
+        <v>44975</v>
+      </c>
+      <c r="F8" s="2">
+        <v>44975</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" t="s">
+        <v>103</v>
+      </c>
+    </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="2">
+        <v>44905</v>
+      </c>
+      <c r="F9" s="2">
+        <v>44905</v>
+      </c>
+      <c r="G9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" t="s">
+        <v>107</v>
+      </c>
       <c r="J9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F10" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" t="s">
+        <v>111</v>
+      </c>
+    </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="2">
+        <v>44925</v>
+      </c>
+      <c r="F11" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" t="s">
+        <v>115</v>
+      </c>
       <c r="J11" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="2">
+        <v>44898</v>
+      </c>
+      <c r="F12" s="2">
+        <v>44899</v>
+      </c>
+      <c r="G12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -667,7 +1192,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -723,28 +1248,185 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3">
+        <v>1993</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
       <c r="H3" s="1" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4">
+        <v>2002</v>
+      </c>
+    </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5">
+        <v>2004</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
       <c r="H5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6">
+        <v>1978</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7">
+        <v>1998</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
       <c r="H7" s="1" t="s">
         <v>41</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8">
+        <v>1998</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9">
+        <v>2010</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
       <c r="H9" s="1" t="s">
         <v>42</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10">
+        <v>2004</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11">
+        <v>1984</v>
+      </c>
+      <c r="F11" t="s">
+        <v>66</v>
+      </c>
       <c r="H11" s="1" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12">
+        <v>2002</v>
+      </c>
+      <c r="F12" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">

--- a/document/공연리스트_03.xlsx
+++ b/document/공연리스트_03.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mypc\Documents\programming\tiget_project\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KS50511\Documents\workspace\project-folder\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C34277-1B55-415F-BD0C-ECFA2B0E25A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE5EF75-AE79-4D25-8324-3A978672E4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="공연정보" sheetId="1" r:id="rId1"/>
@@ -270,34 +270,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>S0021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0022</t>
-  </si>
-  <si>
-    <t>S0023</t>
-  </si>
-  <si>
-    <t>S0024</t>
-  </si>
-  <si>
-    <t>S0025</t>
-  </si>
-  <si>
-    <t>S0026</t>
-  </si>
-  <si>
-    <t>S0027</t>
-  </si>
-  <si>
-    <t>S0028</t>
-  </si>
-  <si>
-    <t>S0029</t>
-  </si>
-  <si>
     <t>리쌍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -310,9 +282,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>S0030</t>
-  </si>
-  <si>
     <t>정동원 콘서트 - 일산 (2nd JEONG DONG WON’S CHRISTMAS CONCERT)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -495,6 +464,37 @@
   </si>
   <si>
     <t>C0030</t>
+  </si>
+  <si>
+    <t>A0021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0022</t>
+  </si>
+  <si>
+    <t>A0023</t>
+  </si>
+  <si>
+    <t>A0024</t>
+  </si>
+  <si>
+    <t>A0025</t>
+  </si>
+  <si>
+    <t>A0026</t>
+  </si>
+  <si>
+    <t>A0027</t>
+  </si>
+  <si>
+    <t>A0028</t>
+  </si>
+  <si>
+    <t>A0029</t>
+  </si>
+  <si>
+    <t>A0030</t>
   </si>
 </sst>
 </file>
@@ -834,18 +834,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.125" customWidth="1"/>
+    <col min="3" max="3" width="99.75" customWidth="1"/>
     <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="86.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -905,13 +906,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2">
         <v>44919</v>
@@ -920,10 +921,10 @@
         <v>44920</v>
       </c>
       <c r="G3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
@@ -931,13 +932,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2">
         <v>44904</v>
@@ -946,21 +947,21 @@
         <v>44906</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2">
         <v>44912</v>
@@ -969,10 +970,10 @@
         <v>44913</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>18</v>
@@ -980,13 +981,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E6" s="2">
         <v>44903</v>
@@ -995,21 +996,21 @@
         <v>44904</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2">
         <v>44925</v>
@@ -1018,10 +1019,10 @@
         <v>44926</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>19</v>
@@ -1029,13 +1030,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2">
         <v>44975</v>
@@ -1044,21 +1045,21 @@
         <v>44975</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="H8" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2">
         <v>44905</v>
@@ -1067,10 +1068,10 @@
         <v>44905</v>
       </c>
       <c r="G9" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="H9" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>20</v>
@@ -1078,13 +1079,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E10" s="2">
         <v>44926</v>
@@ -1093,21 +1094,21 @@
         <v>44926</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H10" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E11" s="2">
         <v>44925</v>
@@ -1116,10 +1117,10 @@
         <v>44926</v>
       </c>
       <c r="G11" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H11" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>21</v>
@@ -1127,13 +1128,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E12" s="2">
         <v>44898</v>
@@ -1142,10 +1143,10 @@
         <v>44899</v>
       </c>
       <c r="G12" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="H12" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1191,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C909CF8F-A952-4D46-A6F7-1E5A8CB2D579}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1202,6 +1203,7 @@
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -1249,7 +1251,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
         <v>48</v>
@@ -1269,7 +1271,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
@@ -1283,7 +1285,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
@@ -1303,7 +1305,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -1320,7 +1322,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
@@ -1340,7 +1342,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -1357,7 +1359,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
         <v>59</v>
@@ -1377,7 +1379,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s">
         <v>61</v>
@@ -1394,7 +1396,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -1414,19 +1416,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E12">
         <v>2002</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
